--- a/examples/Grouping/Results_Groups.xlsx
+++ b/examples/Grouping/Results_Groups.xlsx
@@ -5,15 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\JS\PlateEditor_GitHub\examples\Grouping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\JS\PlateEditor\examples\Grouping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25311A12-EEB5-4A71-A5FC-5149EB6003DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F3C57D-E1A7-4B82-9987-092466EFC733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="25740" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="25740" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Validation" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="200">
   <si>
     <t>Well</t>
   </si>
@@ -193,13 +195,586 @@
   </si>
   <si>
     <t>G10</t>
+  </si>
+  <si>
+    <t>All possible configurations of samples, concentrations and ranges, for 1 or 2 levels rows and columns, should display the correct tables</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sample</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grouped analysis tool - Validation sheet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sample sample</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sample conc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sample range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lvl1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lvl2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Col config</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sample</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sample range conc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Row config</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sample</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Validation HTML</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Col</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Row</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avg, SD, N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Both html and text output should be valid, presenting with the correct headers, grouping and indentations for each data aggregation mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Validation TXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sample</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sample conc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sample</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sample</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sample range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sample range conc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sample</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sample range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sample range conc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sample</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sample</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conc range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sample</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conc conc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There is a total of 624 cases to analyze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sample sample</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sample sample</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sample range conc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sample</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sample range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sample conc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sample sample</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sample range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sample sample</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupTable validated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Problem of alignement when using range, as empty columns are not adjusted to match the maximum size. The columnLengths strategy should be modified to calculate the max number of subcolumn for each unitary column (lvl1 &amp; lvl2 exploded headers)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>==&gt; Easiest fix is just to say fuck off to the left alignment in HTML and keep it centered (more beautiful anyway)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sample</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range conc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plate</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,21 +790,165 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -238,16 +957,88 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -523,452 +1314,1211 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:C109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C2" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C3" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1">
+      <c r="C4" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C5" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C6" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="1">
+      <c r="C7" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="1">
+      <c r="C8" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="C9" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="1">
+      <c r="C10" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1">
+      <c r="C11" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="1">
+      <c r="C12" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>198</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="1">
+      <c r="C13" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>198</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="1">
+      <c r="C14" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>198</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="1">
+      <c r="C15" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="1">
+      <c r="C16" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>198</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="1">
+      <c r="C17" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>198</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="1">
+      <c r="C18" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>198</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="1">
+      <c r="C19" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>198</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="1">
+      <c r="C20" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>198</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="1">
+      <c r="C21" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>198</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="1">
+      <c r="C22" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>198</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="1">
+      <c r="C23" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>198</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="1">
+      <c r="C24" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>198</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="1">
+      <c r="C25" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
+        <v>198</v>
+      </c>
+      <c r="B26" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="1">
+      <c r="C26" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
+        <v>198</v>
+      </c>
+      <c r="B27" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="1">
+      <c r="C27" s="1">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
+        <v>198</v>
+      </c>
+      <c r="B28" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="1">
+      <c r="C28" s="1">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
+        <v>198</v>
+      </c>
+      <c r="B29" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="1">
+      <c r="C29" s="1">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
+        <v>198</v>
+      </c>
+      <c r="B30" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="1">
+      <c r="C30" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
+        <v>198</v>
+      </c>
+      <c r="B31" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="1">
+      <c r="C31" s="1">
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
+        <v>198</v>
+      </c>
+      <c r="B32" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="1">
+      <c r="C32" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
+        <v>198</v>
+      </c>
+      <c r="B33" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="1">
+      <c r="C33" s="1">
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
+        <v>198</v>
+      </c>
+      <c r="B34" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="1">
+      <c r="C34" s="1">
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
+        <v>198</v>
+      </c>
+      <c r="B35" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="1">
+      <c r="C35" s="1">
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
+        <v>198</v>
+      </c>
+      <c r="B36" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="1">
+      <c r="C36" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
+        <v>198</v>
+      </c>
+      <c r="B37" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="1">
+      <c r="C37" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
+        <v>198</v>
+      </c>
+      <c r="B38" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="1">
+      <c r="C38" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
+        <v>198</v>
+      </c>
+      <c r="B39" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="1">
+      <c r="C39" s="1">
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
+        <v>198</v>
+      </c>
+      <c r="B40" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="1">
+      <c r="C40" s="1">
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
+        <v>198</v>
+      </c>
+      <c r="B41" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="1">
+      <c r="C41" s="1">
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
+        <v>198</v>
+      </c>
+      <c r="B42" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="1">
+      <c r="C42" s="1">
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
+        <v>198</v>
+      </c>
+      <c r="B43" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="1">
+      <c r="C43" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
+        <v>198</v>
+      </c>
+      <c r="B44" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="1">
+      <c r="C44" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
+        <v>198</v>
+      </c>
+      <c r="B45" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="1">
+      <c r="C45" s="1">
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
+        <v>198</v>
+      </c>
+      <c r="B46" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="1">
+      <c r="C46" s="1">
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
+        <v>198</v>
+      </c>
+      <c r="B47" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="1">
+      <c r="C47" s="1">
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
+        <v>198</v>
+      </c>
+      <c r="B48" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="1">
+      <c r="C48" s="1">
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
+        <v>198</v>
+      </c>
+      <c r="B49" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="1">
+      <c r="C49" s="1">
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
+        <v>198</v>
+      </c>
+      <c r="B50" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="1">
+      <c r="C50" s="1">
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
+        <v>198</v>
+      </c>
+      <c r="B51" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="1">
+      <c r="C51" s="1">
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
+        <v>198</v>
+      </c>
+      <c r="B52" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="1">
+      <c r="C52" s="1">
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
+        <v>198</v>
+      </c>
+      <c r="B53" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="1">
+      <c r="C53" s="1">
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
+        <v>198</v>
+      </c>
+      <c r="B54" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="1">
+      <c r="C54" s="1">
         <v>94</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
+        <v>198</v>
+      </c>
+      <c r="B55" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="1">
+      <c r="C55" s="1">
         <v>95</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>199</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>199</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>199</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>199</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" s="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>199</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" s="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>199</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>199</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>199</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>199</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" s="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>199</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C65" s="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>199</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C66" s="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>199</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>199</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>199</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>199</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>199</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C71" s="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>199</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C72" s="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>199</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C73" s="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>199</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>199</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>199</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" s="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>199</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C77" s="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>199</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C78" s="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>199</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C79" s="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>199</v>
+      </c>
+      <c r="B80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>199</v>
+      </c>
+      <c r="B81" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" s="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>199</v>
+      </c>
+      <c r="B82" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" s="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>199</v>
+      </c>
+      <c r="B83" t="s">
+        <v>29</v>
+      </c>
+      <c r="C83" s="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>199</v>
+      </c>
+      <c r="B84" t="s">
+        <v>30</v>
+      </c>
+      <c r="C84" s="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>199</v>
+      </c>
+      <c r="B85" t="s">
+        <v>31</v>
+      </c>
+      <c r="C85" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>199</v>
+      </c>
+      <c r="B86" t="s">
+        <v>32</v>
+      </c>
+      <c r="C86" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>199</v>
+      </c>
+      <c r="B87" t="s">
+        <v>33</v>
+      </c>
+      <c r="C87" s="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>199</v>
+      </c>
+      <c r="B88" t="s">
+        <v>34</v>
+      </c>
+      <c r="C88" s="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>199</v>
+      </c>
+      <c r="B89" t="s">
+        <v>35</v>
+      </c>
+      <c r="C89" s="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>199</v>
+      </c>
+      <c r="B90" t="s">
+        <v>36</v>
+      </c>
+      <c r="C90" s="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>199</v>
+      </c>
+      <c r="B91" t="s">
+        <v>37</v>
+      </c>
+      <c r="C91" s="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>199</v>
+      </c>
+      <c r="B92" t="s">
+        <v>38</v>
+      </c>
+      <c r="C92" s="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>199</v>
+      </c>
+      <c r="B93" t="s">
+        <v>39</v>
+      </c>
+      <c r="C93" s="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>199</v>
+      </c>
+      <c r="B94" t="s">
+        <v>40</v>
+      </c>
+      <c r="C94" s="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>199</v>
+      </c>
+      <c r="B95" t="s">
+        <v>41</v>
+      </c>
+      <c r="C95" s="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>199</v>
+      </c>
+      <c r="B96" t="s">
+        <v>42</v>
+      </c>
+      <c r="C96" s="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>199</v>
+      </c>
+      <c r="B97" t="s">
+        <v>43</v>
+      </c>
+      <c r="C97" s="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>199</v>
+      </c>
+      <c r="B98" t="s">
+        <v>44</v>
+      </c>
+      <c r="C98" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>199</v>
+      </c>
+      <c r="B99" t="s">
+        <v>45</v>
+      </c>
+      <c r="C99" s="1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>199</v>
+      </c>
+      <c r="B100" t="s">
+        <v>46</v>
+      </c>
+      <c r="C100" s="1">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>199</v>
+      </c>
+      <c r="B101" t="s">
+        <v>47</v>
+      </c>
+      <c r="C101" s="1">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>199</v>
+      </c>
+      <c r="B102" t="s">
+        <v>48</v>
+      </c>
+      <c r="C102" s="1">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>199</v>
+      </c>
+      <c r="B103" t="s">
+        <v>49</v>
+      </c>
+      <c r="C103" s="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>199</v>
+      </c>
+      <c r="B104" t="s">
+        <v>50</v>
+      </c>
+      <c r="C104" s="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>199</v>
+      </c>
+      <c r="B105" t="s">
+        <v>51</v>
+      </c>
+      <c r="C105" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>199</v>
+      </c>
+      <c r="B106" t="s">
+        <v>52</v>
+      </c>
+      <c r="C106" s="1">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>199</v>
+      </c>
+      <c r="B107" t="s">
+        <v>53</v>
+      </c>
+      <c r="C107" s="1">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>199</v>
+      </c>
+      <c r="B108" t="s">
+        <v>54</v>
+      </c>
+      <c r="C108" s="1">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>199</v>
+      </c>
+      <c r="B109" t="s">
+        <v>55</v>
+      </c>
+      <c r="C109" s="1">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -976,4 +2526,1914 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:N54"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="3060" topLeftCell="A49" activePane="bottomLeft"/>
+      <selection activeCell="N1" sqref="N1:N1048576"/>
+      <selection pane="bottomLeft" activeCell="E56" sqref="E56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:13">
+      <c r="A7" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="15"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A8" s="17"/>
+      <c r="B8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" t="s">
+        <v>118</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25">
+        <v>17</v>
+      </c>
+      <c r="B25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="N25" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26">
+        <v>18</v>
+      </c>
+      <c r="B26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29">
+        <v>21</v>
+      </c>
+      <c r="B29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30">
+        <v>22</v>
+      </c>
+      <c r="B30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31">
+        <v>23</v>
+      </c>
+      <c r="B31" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="N31" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32">
+        <v>24</v>
+      </c>
+      <c r="B32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="N32" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="M33" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34">
+        <v>26</v>
+      </c>
+      <c r="B34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35">
+        <v>27</v>
+      </c>
+      <c r="B35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36">
+        <v>28</v>
+      </c>
+      <c r="B36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" t="s">
+        <v>93</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M36" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37">
+        <v>29</v>
+      </c>
+      <c r="B37" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" t="s">
+        <v>95</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38">
+        <v>30</v>
+      </c>
+      <c r="B38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" s="6"/>
+      <c r="F38" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M38" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39">
+        <v>31</v>
+      </c>
+      <c r="B39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" s="6"/>
+      <c r="F39" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M39" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40">
+        <v>32</v>
+      </c>
+      <c r="B40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40" t="s">
+        <v>57</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="M40" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41">
+        <v>33</v>
+      </c>
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" t="s">
+        <v>82</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M41" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42">
+        <v>34</v>
+      </c>
+      <c r="B42" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" t="s">
+        <v>84</v>
+      </c>
+      <c r="E42" t="s">
+        <v>71</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="M42" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43">
+        <v>35</v>
+      </c>
+      <c r="B43" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" t="s">
+        <v>85</v>
+      </c>
+      <c r="E43" t="s">
+        <v>86</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M43" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44">
+        <v>36</v>
+      </c>
+      <c r="B44" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" t="s">
+        <v>87</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="M44" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45">
+        <v>37</v>
+      </c>
+      <c r="B45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" t="s">
+        <v>79</v>
+      </c>
+      <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="M45" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46">
+        <v>38</v>
+      </c>
+      <c r="B46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" t="s">
+        <v>82</v>
+      </c>
+      <c r="E46" t="s">
+        <v>89</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="M46" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47">
+        <v>39</v>
+      </c>
+      <c r="B47" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" t="s">
+        <v>71</v>
+      </c>
+      <c r="E47" t="s">
+        <v>81</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="M47" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48">
+        <v>40</v>
+      </c>
+      <c r="B48" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" t="s">
+        <v>86</v>
+      </c>
+      <c r="E48" t="s">
+        <v>90</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="M48" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49">
+        <v>41</v>
+      </c>
+      <c r="B49" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" t="s">
+        <v>80</v>
+      </c>
+      <c r="E49" t="s">
+        <v>91</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="M49" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50">
+        <v>42</v>
+      </c>
+      <c r="B50" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" t="s">
+        <v>87</v>
+      </c>
+      <c r="E50" t="s">
+        <v>61</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="M50" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51">
+        <v>43</v>
+      </c>
+      <c r="B51" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" t="s">
+        <v>94</v>
+      </c>
+      <c r="E51" t="s">
+        <v>87</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="M51" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52">
+        <v>44</v>
+      </c>
+      <c r="B52" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" s="6"/>
+      <c r="D52" t="s">
+        <v>61</v>
+      </c>
+      <c r="E52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L52" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="M52" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53">
+        <v>45</v>
+      </c>
+      <c r="B53" t="s">
+        <v>71</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" t="s">
+        <v>61</v>
+      </c>
+      <c r="E53" t="s">
+        <v>96</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L53" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="M53" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54">
+        <v>46</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C54" s="12"/>
+      <c r="D54" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L54" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="M54" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:M7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="F9:M54 N25 N31:N32 N40:N41">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"V"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>